--- a/TestHorse/bin/Debug/场地状况.xlsx
+++ b/TestHorse/bin/Debug/场地状况.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/TestHorse/TestHorse/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PrivateHorseRace\TestHorse\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E597EC9-DCCE-4024-A808-FAE2A1488180}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5229941F-CB0A-4404-8C67-64443779FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="1752" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>状况</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>极差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地体力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥地体力消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,15 +397,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +425,14 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -430,8 +448,14 @@
       <c r="E2">
         <v>-20</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -447,8 +471,14 @@
       <c r="E3">
         <v>-10</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -464,8 +494,14 @@
       <c r="E4">
         <v>-20</v>
       </c>
+      <c r="F4">
+        <v>1.02</v>
+      </c>
+      <c r="G4">
+        <v>1.01</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -480,6 +516,12 @@
       </c>
       <c r="E5">
         <v>-20</v>
+      </c>
+      <c r="F5">
+        <v>1.02</v>
+      </c>
+      <c r="G5">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>

--- a/TestHorse/bin/Debug/场地状况.xlsx
+++ b/TestHorse/bin/Debug/场地状况.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PrivateHorseRace\TestHorse\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5229941F-CB0A-4404-8C67-64443779FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5229941F-CB0A-4404-8C67-64443779FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC726B5-3475-430D-9A97-AA773D224756}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,16 +400,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="E3">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -489,39 +489,39 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="E4">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="F4">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="G4">
-        <v>1.01</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="C5">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="D5">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="E5">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="F5">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="G5">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
